--- a/Data Files/Data.xlsx
+++ b/Data Files/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Katalon Learning\Katalon Main\Katalon Demo Main\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88465BAE-5CE8-44CB-9E9F-A7ECF061934A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E54B2D-948A-4349-96EA-AF66C93FE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3672" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{84433F9B-DDF3-4221-9ED2-0EBA07246D39}"/>
+    <workbookView xWindow="3720" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{84433F9B-DDF3-4221-9ED2-0EBA07246D39}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
